--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Downloads\Sura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65C7FB7B-32EA-4710-8D97-FDD3D9909662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C291D-1980-4B19-9B4A-E965D6667CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -42,15 +42,9 @@
     <t>Contrasenia</t>
   </si>
   <si>
-    <t>rherner</t>
-  </si>
-  <si>
     <t>silverarrow</t>
   </si>
   <si>
-    <t>04104015648</t>
-  </si>
-  <si>
     <t>NroSiniestro</t>
   </si>
   <si>
@@ -64,6 +58,12 @@
   </si>
   <si>
     <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>tcorvetto</t>
+  </si>
+  <si>
+    <t>0420172008282</t>
   </si>
 </sst>
 </file>
@@ -131,9 +131,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,10 +474,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -485,24 +485,24 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977C291D-1980-4B19-9B4A-E965D6667CAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEBC35-3A8D-4E48-B7CB-F7D783F34A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>0420172008282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406696 </t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA01E7D-480B-457E-89FE-07C13B233011}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -481,14 +490,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -496,17 +502,37 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3CF74974-29E3-462F-8B11-265F931C91B0}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{3CF74974-29E3-462F-8B11-265F931C91B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEBC35-3A8D-4E48-B7CB-F7D783F34A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA09F9-7D1B-4FA7-9658-08D7A44AEEC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>0420172008282</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406696 </t>
-  </si>
-  <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406701 </t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,10 +491,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DA09F9-7D1B-4FA7-9658-08D7A44AEEC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B34810-3E53-49C2-822B-82496D699EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406701 </t>
+    <t xml:space="preserve">0420194406702 </t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B34810-3E53-49C2-822B-82496D699EA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89EEFF-CB00-4FD5-AA69-2731EBE2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406702 </t>
+    <t xml:space="preserve">0420194406719 </t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89EEFF-CB00-4FD5-AA69-2731EBE2CFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB140F22-3C53-49F1-A26E-7C8484B22A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t xml:space="preserve">0420194406719 </t>
+  </si>
+  <si>
+    <t>0420172008483</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA01E7D-480B-457E-89FE-07C13B233011}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,17 +525,38 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{3CF74974-29E3-462F-8B11-265F931C91B0}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{3CF74974-29E3-462F-8B11-265F931C91B0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{82585142-667C-4C11-82B6-9FFD4A8BE90D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB140F22-3C53-49F1-A26E-7C8484B22A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA3FF5-1A1E-4007-A63C-84FA78E2C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406719 </t>
-  </si>
-  <si>
-    <t>0420172008483</t>
+    <t xml:space="preserve">0420194406833 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008637  </t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA3FF5-1A1E-4007-A63C-84FA78E2C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF57A4-80F6-45F0-A153-5FD686A050D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0420194406833 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008637  </t>
+    <t xml:space="preserve">0420172010222  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406906 </t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBF57A4-80F6-45F0-A153-5FD686A050D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFFFEE-E40A-4ED8-8C6B-DB00ABFFD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,10 +72,10 @@
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
-    <t xml:space="preserve">0420172010222  </t>
-  </si>
-  <si>
     <t xml:space="preserve">0420194406906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172010458  </t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>

--- a/SuraClaims/Generación Inspección Siniestro.xlsx
+++ b/SuraClaims/Generación Inspección Siniestro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AFFFEE-E40A-4ED8-8C6B-DB00ABFFD978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685AF6CE-714F-4FC3-834C-657BB8280799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">0420194406906 </t>
   </si>
   <si>
-    <t xml:space="preserve">0420172010458  </t>
+    <t xml:space="preserve">0420172010449  </t>
   </si>
 </sst>
 </file>
@@ -464,10 +464,13 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
